--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H2">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I2">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J2">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.70363425506568</v>
+        <v>2.312813333333333</v>
       </c>
       <c r="N2">
-        <v>1.70363425506568</v>
+        <v>6.93844</v>
       </c>
       <c r="O2">
-        <v>0.2393795294645139</v>
+        <v>0.2584835377141118</v>
       </c>
       <c r="P2">
-        <v>0.2393795294645139</v>
+        <v>0.274740130058117</v>
       </c>
       <c r="Q2">
-        <v>54.07490671828999</v>
+        <v>83.82494498872001</v>
       </c>
       <c r="R2">
-        <v>54.07490671828999</v>
+        <v>754.42450489848</v>
       </c>
       <c r="S2">
-        <v>0.2089652177518382</v>
+        <v>0.2235858983376761</v>
       </c>
       <c r="T2">
-        <v>0.2089652177518382</v>
+        <v>0.2385899670812544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H3">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I3">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J3">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.19330489563364</v>
+        <v>3.371056333333333</v>
       </c>
       <c r="N3">
-        <v>3.19330489563364</v>
+        <v>10.113169</v>
       </c>
       <c r="O3">
-        <v>0.4486947953063077</v>
+        <v>0.3767543858015183</v>
       </c>
       <c r="P3">
-        <v>0.4486947953063077</v>
+        <v>0.4004492892292385</v>
       </c>
       <c r="Q3">
-        <v>101.3584129580622</v>
+        <v>122.179601623222</v>
       </c>
       <c r="R3">
-        <v>101.3584129580622</v>
+        <v>1099.616414608998</v>
       </c>
       <c r="S3">
-        <v>0.3916859800628796</v>
+        <v>0.3258891012829595</v>
       </c>
       <c r="T3">
-        <v>0.3916859800628796</v>
+        <v>0.3477583806730566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H4">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I4">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J4">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.681509189493235</v>
+        <v>0.824507</v>
       </c>
       <c r="N4">
-        <v>0.681509189493235</v>
+        <v>2.473521</v>
       </c>
       <c r="O4">
-        <v>0.09575960839102952</v>
+        <v>0.09214815703387902</v>
       </c>
       <c r="P4">
-        <v>0.09575960839102952</v>
+        <v>0.0979435552143542</v>
       </c>
       <c r="Q4">
-        <v>21.63172391017891</v>
+        <v>29.883195898998</v>
       </c>
       <c r="R4">
-        <v>21.63172391017891</v>
+        <v>268.948763090982</v>
       </c>
       <c r="S4">
-        <v>0.08359289311005445</v>
+        <v>0.0797073138691272</v>
       </c>
       <c r="T4">
-        <v>0.08359289311005445</v>
+        <v>0.08505619331792039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H5">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I5">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J5">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.53842693680656</v>
+        <v>0.8509326666666667</v>
       </c>
       <c r="N5">
-        <v>1.53842693680656</v>
+        <v>2.552798</v>
       </c>
       <c r="O5">
-        <v>0.2161660668381489</v>
+        <v>0.09510152975445622</v>
       </c>
       <c r="P5">
-        <v>0.2161660668381489</v>
+        <v>0.1010826719741183</v>
       </c>
       <c r="Q5">
-        <v>48.83107559815538</v>
+        <v>30.840960203924</v>
       </c>
       <c r="R5">
-        <v>48.83107559815538</v>
+        <v>277.568641835316</v>
       </c>
       <c r="S5">
-        <v>0.1887011363437761</v>
+        <v>0.08226195428722061</v>
       </c>
       <c r="T5">
-        <v>0.1887011363437761</v>
+        <v>0.08778226673216057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.38289979855941</v>
+        <v>36.243714</v>
       </c>
       <c r="H6">
-        <v>2.38289979855941</v>
+        <v>108.731142</v>
       </c>
       <c r="I6">
-        <v>0.06553500853937258</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J6">
-        <v>0.06553500853937258</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.70363425506568</v>
+        <v>1.588314</v>
       </c>
       <c r="N6">
-        <v>1.70363425506568</v>
+        <v>3.176628</v>
       </c>
       <c r="O6">
-        <v>0.2393795294645139</v>
+        <v>0.1775123896960348</v>
       </c>
       <c r="P6">
-        <v>0.2393795294645139</v>
+        <v>0.1257843535241721</v>
       </c>
       <c r="Q6">
-        <v>4.059589723214919</v>
+        <v>57.566398358196</v>
       </c>
       <c r="R6">
-        <v>4.059589723214919</v>
+        <v>345.398390149176</v>
       </c>
       <c r="S6">
-        <v>0.01568773950760791</v>
+        <v>0.1535465951419805</v>
       </c>
       <c r="T6">
-        <v>0.01568773950760791</v>
+        <v>0.1092337139111084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H7">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I7">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J7">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19330489563364</v>
+        <v>2.312813333333333</v>
       </c>
       <c r="N7">
-        <v>3.19330489563364</v>
+        <v>6.93844</v>
       </c>
       <c r="O7">
-        <v>0.4486947953063077</v>
+        <v>0.2584835377141118</v>
       </c>
       <c r="P7">
-        <v>0.4486947953063077</v>
+        <v>0.274740130058117</v>
       </c>
       <c r="Q7">
-        <v>7.609325592544178</v>
+        <v>0.3767734816933333</v>
       </c>
       <c r="R7">
-        <v>7.609325592544178</v>
+        <v>3.39096133524</v>
       </c>
       <c r="S7">
-        <v>0.02940521724197091</v>
+        <v>0.001004966211257925</v>
       </c>
       <c r="T7">
-        <v>0.02940521724197091</v>
+        <v>0.001072405983760547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H8">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I8">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J8">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.681509189493235</v>
+        <v>3.371056333333333</v>
       </c>
       <c r="N8">
-        <v>0.681509189493235</v>
+        <v>10.113169</v>
       </c>
       <c r="O8">
-        <v>0.09575960839102952</v>
+        <v>0.3767543858015183</v>
       </c>
       <c r="P8">
-        <v>0.09575960839102952</v>
+        <v>0.4004492892292385</v>
       </c>
       <c r="Q8">
-        <v>1.623968110359816</v>
+        <v>0.5491686740943333</v>
       </c>
       <c r="R8">
-        <v>1.623968110359816</v>
+        <v>4.942518066849</v>
       </c>
       <c r="S8">
-        <v>0.006275606753633094</v>
+        <v>0.001464795131721409</v>
       </c>
       <c r="T8">
-        <v>0.006275606753633094</v>
+        <v>0.001563092417082467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H9">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I9">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J9">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.53842693680656</v>
+        <v>0.824507</v>
       </c>
       <c r="N9">
-        <v>1.53842693680656</v>
+        <v>2.473521</v>
       </c>
       <c r="O9">
-        <v>0.2161660668381489</v>
+        <v>0.09214815703387902</v>
       </c>
       <c r="P9">
-        <v>0.2161660668381489</v>
+        <v>0.0979435552143542</v>
       </c>
       <c r="Q9">
-        <v>3.665917237814722</v>
+        <v>0.134317961849</v>
       </c>
       <c r="R9">
-        <v>3.665917237814722</v>
+        <v>1.208861656641</v>
       </c>
       <c r="S9">
-        <v>0.01416644503616067</v>
+        <v>0.0003582656948589183</v>
       </c>
       <c r="T9">
-        <v>0.01416644503616067</v>
+        <v>0.0003823076543657324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.75248327162173</v>
+        <v>0.162907</v>
       </c>
       <c r="H10">
-        <v>1.75248327162173</v>
+        <v>0.488721</v>
       </c>
       <c r="I10">
-        <v>0.04819716139145676</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J10">
-        <v>0.04819716139145676</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.70363425506568</v>
+        <v>0.8509326666666667</v>
       </c>
       <c r="N10">
-        <v>1.70363425506568</v>
+        <v>2.552798</v>
       </c>
       <c r="O10">
-        <v>0.2393795294645139</v>
+        <v>0.09510152975445622</v>
       </c>
       <c r="P10">
-        <v>0.2393795294645139</v>
+        <v>0.1010826719741183</v>
       </c>
       <c r="Q10">
-        <v>2.985590532964352</v>
+        <v>0.1386228879286667</v>
       </c>
       <c r="R10">
-        <v>2.985590532964352</v>
+        <v>1.247605991358</v>
       </c>
       <c r="S10">
-        <v>0.01153741381541215</v>
+        <v>0.0003697482048078253</v>
       </c>
       <c r="T10">
-        <v>0.01153741381541215</v>
+        <v>0.0003945607154536117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.75248327162173</v>
+        <v>0.162907</v>
       </c>
       <c r="H11">
-        <v>1.75248327162173</v>
+        <v>0.488721</v>
       </c>
       <c r="I11">
-        <v>0.04819716139145676</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J11">
-        <v>0.04819716139145676</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.19330489563364</v>
+        <v>1.588314</v>
       </c>
       <c r="N11">
-        <v>3.19330489563364</v>
+        <v>3.176628</v>
       </c>
       <c r="O11">
-        <v>0.4486947953063077</v>
+        <v>0.1775123896960348</v>
       </c>
       <c r="P11">
-        <v>0.4486947953063077</v>
+        <v>0.1257843535241721</v>
       </c>
       <c r="Q11">
-        <v>5.596213410785729</v>
+        <v>0.258747468798</v>
       </c>
       <c r="R11">
-        <v>5.596213410785729</v>
+        <v>1.552484812788</v>
       </c>
       <c r="S11">
-        <v>0.02162581546488477</v>
+        <v>0.0006901559584868872</v>
       </c>
       <c r="T11">
-        <v>0.02162581546488477</v>
+        <v>0.0004909799429527818</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.75248327162173</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H12">
-        <v>1.75248327162173</v>
+        <v>9.106441</v>
       </c>
       <c r="I12">
-        <v>0.04819716139145676</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J12">
-        <v>0.04819716139145676</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.681509189493235</v>
+        <v>2.312813333333333</v>
       </c>
       <c r="N12">
-        <v>0.681509189493235</v>
+        <v>6.93844</v>
       </c>
       <c r="O12">
-        <v>0.09575960839102952</v>
+        <v>0.2584835377141118</v>
       </c>
       <c r="P12">
-        <v>0.09575960839102952</v>
+        <v>0.274740130058117</v>
       </c>
       <c r="Q12">
-        <v>1.194333454043378</v>
+        <v>7.020499388004445</v>
       </c>
       <c r="R12">
-        <v>1.194333454043378</v>
+        <v>63.18449449204</v>
       </c>
       <c r="S12">
-        <v>0.004615341300405147</v>
+        <v>0.01872574640707853</v>
       </c>
       <c r="T12">
-        <v>0.004615341300405147</v>
+        <v>0.01998236584710373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.75248327162173</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H13">
-        <v>1.75248327162173</v>
+        <v>9.106441</v>
       </c>
       <c r="I13">
-        <v>0.04819716139145676</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J13">
-        <v>0.04819716139145676</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.53842693680656</v>
+        <v>3.371056333333333</v>
       </c>
       <c r="N13">
-        <v>1.53842693680656</v>
+        <v>10.113169</v>
       </c>
       <c r="O13">
-        <v>0.2161660668381489</v>
+        <v>0.3767543858015183</v>
       </c>
       <c r="P13">
-        <v>0.2161660668381489</v>
+        <v>0.4004492892292385</v>
       </c>
       <c r="Q13">
-        <v>2.696067471365757</v>
+        <v>10.23277520239211</v>
       </c>
       <c r="R13">
-        <v>2.696067471365757</v>
+        <v>92.09497682152899</v>
       </c>
       <c r="S13">
-        <v>0.01041859081075469</v>
+        <v>0.027293835223181</v>
       </c>
       <c r="T13">
-        <v>0.01041859081075469</v>
+        <v>0.02912542917883388</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.484419369699437</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H14">
-        <v>0.484419369699437</v>
+        <v>9.106441</v>
       </c>
       <c r="I14">
-        <v>0.01332260280062238</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J14">
-        <v>0.01332260280062238</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.70363425506568</v>
+        <v>0.824507</v>
       </c>
       <c r="N14">
-        <v>1.70363425506568</v>
+        <v>2.473521</v>
       </c>
       <c r="O14">
-        <v>0.2393795294645139</v>
+        <v>0.09214815703387902</v>
       </c>
       <c r="P14">
-        <v>0.2393795294645139</v>
+        <v>0.0979435552143542</v>
       </c>
       <c r="Q14">
-        <v>0.8252734320372865</v>
+        <v>2.502774783195667</v>
       </c>
       <c r="R14">
-        <v>0.8252734320372865</v>
+        <v>22.524973048761</v>
       </c>
       <c r="S14">
-        <v>0.003189158389655599</v>
+        <v>0.006675639910207956</v>
       </c>
       <c r="T14">
-        <v>0.003189158389655599</v>
+        <v>0.007123618789309104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.484419369699437</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H15">
-        <v>0.484419369699437</v>
+        <v>9.106441</v>
       </c>
       <c r="I15">
-        <v>0.01332260280062238</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J15">
-        <v>0.01332260280062238</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.19330489563364</v>
+        <v>0.8509326666666667</v>
       </c>
       <c r="N15">
-        <v>3.19330489563364</v>
+        <v>2.552798</v>
       </c>
       <c r="O15">
-        <v>0.4486947953063077</v>
+        <v>0.09510152975445622</v>
       </c>
       <c r="P15">
-        <v>0.4486947953063077</v>
+        <v>0.1010826719741183</v>
       </c>
       <c r="Q15">
-        <v>1.546898744800974</v>
+        <v>2.582989374657556</v>
       </c>
       <c r="R15">
-        <v>1.546898744800974</v>
+        <v>23.246904371918</v>
       </c>
       <c r="S15">
-        <v>0.005977782536572499</v>
+        <v>0.006889595928839518</v>
       </c>
       <c r="T15">
-        <v>0.005977782536572499</v>
+        <v>0.007351932649090387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.484419369699437</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H16">
-        <v>0.484419369699437</v>
+        <v>9.106441</v>
       </c>
       <c r="I16">
-        <v>0.01332260280062238</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J16">
-        <v>0.01332260280062238</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.681509189493235</v>
+        <v>1.588314</v>
       </c>
       <c r="N16">
-        <v>0.681509189493235</v>
+        <v>3.176628</v>
       </c>
       <c r="O16">
-        <v>0.09575960839102952</v>
+        <v>0.1775123896960348</v>
       </c>
       <c r="P16">
-        <v>0.09575960839102952</v>
+        <v>0.1257843535241721</v>
       </c>
       <c r="Q16">
-        <v>0.3301362520186871</v>
+        <v>4.821295910158001</v>
       </c>
       <c r="R16">
-        <v>0.3301362520186871</v>
+        <v>28.927775460948</v>
       </c>
       <c r="S16">
-        <v>0.001275767226936832</v>
+        <v>0.01285982087276644</v>
       </c>
       <c r="T16">
-        <v>0.001275767226936832</v>
+        <v>0.009148532358304377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.886458</v>
+      </c>
+      <c r="I17">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J17">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.312813333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.93844</v>
+      </c>
+      <c r="O17">
+        <v>0.2584835377141118</v>
+      </c>
+      <c r="P17">
+        <v>0.274740130058117</v>
+      </c>
+      <c r="Q17">
+        <v>4.538092849502222</v>
+      </c>
+      <c r="R17">
+        <v>40.84283564552</v>
+      </c>
+      <c r="S17">
+        <v>0.01210443462423121</v>
+      </c>
+      <c r="T17">
+        <v>0.01291672095603656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H18">
+        <v>5.886458</v>
+      </c>
+      <c r="I18">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J18">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.371056333333333</v>
+      </c>
+      <c r="N18">
+        <v>10.113169</v>
+      </c>
+      <c r="O18">
+        <v>0.3767543858015183</v>
+      </c>
+      <c r="P18">
+        <v>0.4004492892292385</v>
+      </c>
+      <c r="Q18">
+        <v>6.614527173933555</v>
+      </c>
+      <c r="R18">
+        <v>59.530744565402</v>
+      </c>
+      <c r="S18">
+        <v>0.01764289854842035</v>
+      </c>
+      <c r="T18">
+        <v>0.01882685185059456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H19">
+        <v>5.886458</v>
+      </c>
+      <c r="I19">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J19">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.824507</v>
+      </c>
+      <c r="N19">
+        <v>2.473521</v>
+      </c>
+      <c r="O19">
+        <v>0.09214815703387902</v>
+      </c>
+      <c r="P19">
+        <v>0.0979435552143542</v>
+      </c>
+      <c r="Q19">
+        <v>1.617808608735333</v>
+      </c>
+      <c r="R19">
+        <v>14.560277478618</v>
+      </c>
+      <c r="S19">
+        <v>0.004315173617724302</v>
+      </c>
+      <c r="T19">
+        <v>0.004604749848077739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H20">
+        <v>5.886458</v>
+      </c>
+      <c r="I20">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J20">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8509326666666667</v>
+      </c>
+      <c r="N20">
+        <v>2.552798</v>
+      </c>
+      <c r="O20">
+        <v>0.09510152975445622</v>
+      </c>
+      <c r="P20">
+        <v>0.1010826719741183</v>
+      </c>
+      <c r="Q20">
+        <v>1.669659801053778</v>
+      </c>
+      <c r="R20">
+        <v>15.026938209484</v>
+      </c>
+      <c r="S20">
+        <v>0.004453476069529777</v>
+      </c>
+      <c r="T20">
+        <v>0.004752333294390125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H21">
+        <v>5.886458</v>
+      </c>
+      <c r="I21">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J21">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.588314</v>
+      </c>
+      <c r="N21">
+        <v>3.176628</v>
+      </c>
+      <c r="O21">
+        <v>0.1775123896960348</v>
+      </c>
+      <c r="P21">
+        <v>0.1257843535241721</v>
+      </c>
+      <c r="Q21">
+        <v>3.116514550604</v>
+      </c>
+      <c r="R21">
+        <v>18.699087303624</v>
+      </c>
+      <c r="S21">
+        <v>0.008312665228387578</v>
+      </c>
+      <c r="T21">
+        <v>0.00591366610608905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.496436</v>
+      </c>
+      <c r="H22">
+        <v>0.992872</v>
+      </c>
+      <c r="I22">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J22">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.312813333333333</v>
+      </c>
+      <c r="N22">
+        <v>6.93844</v>
+      </c>
+      <c r="O22">
+        <v>0.2584835377141118</v>
+      </c>
+      <c r="P22">
+        <v>0.274740130058117</v>
+      </c>
+      <c r="Q22">
+        <v>1.148163799946667</v>
+      </c>
+      <c r="R22">
+        <v>6.88898279968</v>
+      </c>
+      <c r="S22">
+        <v>0.003062492133868029</v>
+      </c>
+      <c r="T22">
+        <v>0.002178670189961761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.496436</v>
+      </c>
+      <c r="H23">
+        <v>0.992872</v>
+      </c>
+      <c r="I23">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J23">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.371056333333333</v>
+      </c>
+      <c r="N23">
+        <v>10.113169</v>
+      </c>
+      <c r="O23">
+        <v>0.3767543858015183</v>
+      </c>
+      <c r="P23">
+        <v>0.4004492892292385</v>
+      </c>
+      <c r="Q23">
+        <v>1.673513721894667</v>
+      </c>
+      <c r="R23">
+        <v>10.041082331368</v>
+      </c>
+      <c r="S23">
+        <v>0.00446375561523599</v>
+      </c>
+      <c r="T23">
+        <v>0.003175535109670963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.496436</v>
+      </c>
+      <c r="H24">
+        <v>0.992872</v>
+      </c>
+      <c r="I24">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J24">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.824507</v>
+      </c>
+      <c r="N24">
+        <v>2.473521</v>
+      </c>
+      <c r="O24">
+        <v>0.09214815703387902</v>
+      </c>
+      <c r="P24">
+        <v>0.0979435552143542</v>
+      </c>
+      <c r="Q24">
+        <v>0.409314957052</v>
+      </c>
+      <c r="R24">
+        <v>2.455889742312</v>
+      </c>
+      <c r="S24">
+        <v>0.00109176394196064</v>
+      </c>
+      <c r="T24">
+        <v>0.000776685604681226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.484419369699437</v>
-      </c>
-      <c r="H17">
-        <v>0.484419369699437</v>
-      </c>
-      <c r="I17">
-        <v>0.01332260280062238</v>
-      </c>
-      <c r="J17">
-        <v>0.01332260280062238</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.53842693680656</v>
-      </c>
-      <c r="N17">
-        <v>1.53842693680656</v>
-      </c>
-      <c r="O17">
-        <v>0.2161660668381489</v>
-      </c>
-      <c r="P17">
-        <v>0.2161660668381489</v>
-      </c>
-      <c r="Q17">
-        <v>0.7452438070564693</v>
-      </c>
-      <c r="R17">
-        <v>0.7452438070564693</v>
-      </c>
-      <c r="S17">
-        <v>0.002879894647457446</v>
-      </c>
-      <c r="T17">
-        <v>0.002879894647457446</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.496436</v>
+      </c>
+      <c r="H25">
+        <v>0.992872</v>
+      </c>
+      <c r="I25">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J25">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8509326666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.552798</v>
+      </c>
+      <c r="O25">
+        <v>0.09510152975445622</v>
+      </c>
+      <c r="P25">
+        <v>0.1010826719741183</v>
+      </c>
+      <c r="Q25">
+        <v>0.4224336093093333</v>
+      </c>
+      <c r="R25">
+        <v>2.534601655856</v>
+      </c>
+      <c r="S25">
+        <v>0.001126755264058497</v>
+      </c>
+      <c r="T25">
+        <v>0.0008015785830235622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.496436</v>
+      </c>
+      <c r="H26">
+        <v>0.992872</v>
+      </c>
+      <c r="I26">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J26">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.588314</v>
+      </c>
+      <c r="N26">
+        <v>3.176628</v>
+      </c>
+      <c r="O26">
+        <v>0.1775123896960348</v>
+      </c>
+      <c r="P26">
+        <v>0.1257843535241721</v>
+      </c>
+      <c r="Q26">
+        <v>0.7884962489039999</v>
+      </c>
+      <c r="R26">
+        <v>3.153984995616</v>
+      </c>
+      <c r="S26">
+        <v>0.002103152494413355</v>
+      </c>
+      <c r="T26">
+        <v>0.0009974612057174019</v>
       </c>
     </row>
   </sheetData>
